--- a/Bonn/raw/KostenartengruppeBonn2016.xlsx
+++ b/Bonn/raw/KostenartengruppeBonn2016.xlsx
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="542">
-  <si>
-    <t>Zeile in 
-Ergebnisplan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="542">
   <si>
     <t>Kostenart</t>
   </si>
@@ -1651,6 +1647,9 @@
   </si>
   <si>
     <t>broader</t>
+  </si>
+  <si>
+    <t>ZeileInErgebnisplan</t>
   </si>
 </sst>
 </file>
@@ -1718,7 +1717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1752,6 +1751,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2037,7 +2039,7 @@
   <dimension ref="A1:G526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,25 +2056,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2080,11 +2082,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6"/>
       <c r="F2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="16"/>
     </row>
@@ -2102,13 +2104,13 @@
         <v>1100</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2125,13 +2127,13 @@
         <v>1200</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2148,13 +2150,13 @@
         <v>1300</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2171,13 +2173,13 @@
         <v>2100</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2194,13 +2196,13 @@
         <v>2200</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2217,13 +2219,13 @@
         <v>3100</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2240,13 +2242,13 @@
         <v>3200</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2263,13 +2265,13 @@
         <v>3300</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2286,13 +2288,13 @@
         <v>3400</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2309,13 +2311,13 @@
         <v>3500</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2332,13 +2334,13 @@
         <v>3600</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2355,13 +2357,13 @@
         <v>3900</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2378,13 +2380,13 @@
         <v>4100</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2401,13 +2403,13 @@
         <v>4200</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2424,13 +2426,13 @@
         <v>4900</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2447,13 +2449,13 @@
         <v>5100</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2470,13 +2472,13 @@
         <v>5200</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2493,13 +2495,13 @@
         <v>6000</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2507,11 +2509,11 @@
         <v>2</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="6"/>
       <c r="F21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" s="16"/>
     </row>
@@ -2529,13 +2531,13 @@
         <v>11100</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2552,13 +2554,13 @@
         <v>12100</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2575,13 +2577,13 @@
         <v>12200</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2598,13 +2600,13 @@
         <v>13100</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2621,13 +2623,13 @@
         <v>13200</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2644,13 +2646,13 @@
         <v>13201</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2667,13 +2669,13 @@
         <v>13300</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2690,13 +2692,13 @@
         <v>13301</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2713,13 +2715,13 @@
         <v>14000</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2736,13 +2738,13 @@
         <v>14100</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2759,13 +2761,13 @@
         <v>14200</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2782,13 +2784,13 @@
         <v>14300</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2805,13 +2807,13 @@
         <v>14400</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2828,13 +2830,13 @@
         <v>14500</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2851,13 +2853,13 @@
         <v>14600</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2874,13 +2876,13 @@
         <v>14700</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2897,13 +2899,13 @@
         <v>14800</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2920,13 +2922,13 @@
         <v>15000</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2943,13 +2945,13 @@
         <v>15100</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2966,13 +2968,13 @@
         <v>15103</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2989,13 +2991,13 @@
         <v>15200</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3012,13 +3014,13 @@
         <v>15300</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3035,13 +3037,13 @@
         <v>15400</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3058,13 +3060,13 @@
         <v>15500</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3081,13 +3083,13 @@
         <v>15600</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3104,13 +3106,13 @@
         <v>15700</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3127,13 +3129,13 @@
         <v>15800</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3150,13 +3152,13 @@
         <v>16100</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3173,13 +3175,13 @@
         <v>16103</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3196,13 +3198,13 @@
         <v>16110</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3219,13 +3221,13 @@
         <v>16113</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3242,13 +3244,13 @@
         <v>16120</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3265,13 +3267,13 @@
         <v>16123</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3288,13 +3290,13 @@
         <v>16130</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3311,13 +3313,13 @@
         <v>16133</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3334,13 +3336,13 @@
         <v>16140</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3357,13 +3359,13 @@
         <v>16143</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3380,13 +3382,13 @@
         <v>16150</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3403,13 +3405,13 @@
         <v>16153</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3426,13 +3428,13 @@
         <v>16160</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3449,13 +3451,13 @@
         <v>16163</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3472,13 +3474,13 @@
         <v>16170</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3495,13 +3497,13 @@
         <v>16173</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3518,13 +3520,13 @@
         <v>16180</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3541,13 +3543,13 @@
         <v>16183</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3564,13 +3566,13 @@
         <v>18100</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3587,23 +3589,25 @@
         <v>18200</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>3</v>
       </c>
-      <c r="B69" s="12"/>
+      <c r="B69" s="17" t="s">
+        <v>75</v>
+      </c>
       <c r="D69" s="6"/>
       <c r="F69" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G69" s="16"/>
     </row>
@@ -3621,13 +3625,13 @@
         <v>21100</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3644,13 +3648,13 @@
         <v>21110</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3667,13 +3671,13 @@
         <v>21120</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3690,13 +3694,13 @@
         <v>21130</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3713,13 +3717,13 @@
         <v>21140</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3736,13 +3740,13 @@
         <v>21190</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3759,13 +3763,13 @@
         <v>22100</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3782,13 +3786,13 @@
         <v>22110</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3805,13 +3809,13 @@
         <v>22120</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3828,13 +3832,13 @@
         <v>22130</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3851,13 +3855,13 @@
         <v>22140</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3874,13 +3878,13 @@
         <v>22190</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3897,13 +3901,13 @@
         <v>23000</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3920,13 +3924,13 @@
         <v>23100</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3943,13 +3947,13 @@
         <v>23200</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3966,13 +3970,13 @@
         <v>23300</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3989,13 +3993,13 @@
         <v>23400</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4012,13 +4016,13 @@
         <v>23500</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4035,13 +4039,13 @@
         <v>23600</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4058,13 +4062,13 @@
         <v>23700</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4081,13 +4085,13 @@
         <v>23800</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4104,13 +4108,13 @@
         <v>29100</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -4127,13 +4131,13 @@
         <v>29199</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4141,12 +4145,12 @@
         <v>4</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="9"/>
       <c r="F93" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G93" s="16"/>
     </row>
@@ -4164,13 +4168,13 @@
         <v>31100</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4187,13 +4191,13 @@
         <v>32100</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4210,13 +4214,13 @@
         <v>32200</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4233,13 +4237,13 @@
         <v>36100</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4256,13 +4260,13 @@
         <v>37110</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4279,13 +4283,13 @@
         <v>37113</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4302,13 +4306,13 @@
         <v>37120</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4325,13 +4329,13 @@
         <v>37123</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4348,13 +4352,13 @@
         <v>38110</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4371,13 +4375,13 @@
         <v>38120</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4394,13 +4398,13 @@
         <v>38130</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4417,13 +4421,13 @@
         <v>38140</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4440,13 +4444,13 @@
         <v>38150</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4463,13 +4467,13 @@
         <v>38160</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4486,13 +4490,13 @@
         <v>38170</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4509,13 +4513,13 @@
         <v>38190</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4523,12 +4527,12 @@
         <v>5</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="9"/>
       <c r="F110" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G110" s="16"/>
     </row>
@@ -4546,13 +4550,13 @@
         <v>41100</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4569,13 +4573,13 @@
         <v>42100</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4592,13 +4596,13 @@
         <v>46100</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4606,12 +4610,12 @@
         <v>6</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="9"/>
       <c r="F114" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G114" s="16"/>
     </row>
@@ -4629,13 +4633,13 @@
         <v>48000</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -4652,13 +4656,13 @@
         <v>48100</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4675,13 +4679,13 @@
         <v>48200</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4698,13 +4702,13 @@
         <v>48300</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -4721,13 +4725,13 @@
         <v>48400</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4744,13 +4748,13 @@
         <v>48500</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4767,13 +4771,13 @@
         <v>48600</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4790,13 +4794,13 @@
         <v>48700</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G122" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4813,13 +4817,13 @@
         <v>48800</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4836,13 +4840,13 @@
         <v>49600</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G124" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4859,13 +4863,13 @@
         <v>19100</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4873,12 +4877,12 @@
         <v>7</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="9"/>
       <c r="F126" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G126" s="16"/>
     </row>
@@ -4896,13 +4900,13 @@
         <v>51100</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4919,13 +4923,13 @@
         <v>52100</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G128" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4942,13 +4946,13 @@
         <v>54100</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4965,13 +4969,13 @@
         <v>54101</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4988,13 +4992,13 @@
         <v>54103</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -5011,13 +5015,13 @@
         <v>54200</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -5034,13 +5038,13 @@
         <v>54201</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -5057,13 +5061,13 @@
         <v>54203</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -5080,13 +5084,13 @@
         <v>54300</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5103,13 +5107,13 @@
         <v>54301</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5126,13 +5130,13 @@
         <v>55100</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5149,13 +5153,13 @@
         <v>56100</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G138" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5172,13 +5176,13 @@
         <v>56200</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G139" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5195,13 +5199,13 @@
         <v>56300</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G140" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -5218,13 +5222,13 @@
         <v>56400</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G141" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -5241,13 +5245,13 @@
         <v>56500</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G142" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -5264,13 +5268,13 @@
         <v>56510</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -5287,13 +5291,13 @@
         <v>56540</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G144" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5310,13 +5314,13 @@
         <v>56550</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G145" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5333,13 +5337,13 @@
         <v>56600</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G146" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5356,13 +5360,13 @@
         <v>57100</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G147" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -5379,13 +5383,13 @@
         <v>57110</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G148" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5402,13 +5406,13 @@
         <v>58100</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G149" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5425,13 +5429,13 @@
         <v>58200</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G150" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5448,13 +5452,13 @@
         <v>58210</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G151" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5471,13 +5475,13 @@
         <v>58220</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G152" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5494,13 +5498,13 @@
         <v>58300</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G153" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5517,13 +5521,13 @@
         <v>58400</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G154" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5540,13 +5544,13 @@
         <v>58310</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G155" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5563,13 +5567,13 @@
         <v>58900</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G156" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5586,13 +5590,13 @@
         <v>58910</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5609,13 +5613,13 @@
         <v>59100</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G158" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5632,13 +5636,13 @@
         <v>59110</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G159" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="160" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5646,12 +5650,12 @@
         <v>8</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="9"/>
       <c r="F160" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G160" s="16"/>
     </row>
@@ -5669,13 +5673,13 @@
         <v>71100</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G161" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5692,13 +5696,13 @@
         <v>71110</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G162" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5706,12 +5710,12 @@
         <v>9</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="9"/>
       <c r="F163" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G163" s="16"/>
     </row>
@@ -5729,13 +5733,13 @@
         <v>72100</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G164" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5752,13 +5756,13 @@
         <v>72110</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G165" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5775,13 +5779,13 @@
         <v>72120</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G166" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5798,13 +5802,13 @@
         <v>47320</v>
       </c>
       <c r="E167" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F167" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F167" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="G167" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="168" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5812,12 +5816,12 @@
         <v>11</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="9"/>
       <c r="F168" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G168" s="16"/>
     </row>
@@ -5835,13 +5839,13 @@
         <v>1000</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G169" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5858,13 +5862,13 @@
         <v>1100</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G170" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5881,13 +5885,13 @@
         <v>1200</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G171" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -5904,13 +5908,13 @@
         <v>1900</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G172" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -5927,13 +5931,13 @@
         <v>1901</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G173" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -5950,13 +5954,13 @@
         <v>2100</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G174" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -5973,13 +5977,13 @@
         <v>2200</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G175" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -5996,13 +6000,13 @@
         <v>2900</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G176" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -6019,13 +6023,13 @@
         <v>3100</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G177" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -6042,13 +6046,13 @@
         <v>3200</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G178" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -6065,13 +6069,13 @@
         <v>3900</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G179" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -6088,13 +6092,13 @@
         <v>4100</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G180" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -6111,13 +6115,13 @@
         <v>4101</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G181" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -6134,13 +6138,13 @@
         <v>4110</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G182" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -6157,13 +6161,13 @@
         <v>5100</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G183" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -6180,13 +6184,13 @@
         <v>5200</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G184" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -6203,13 +6207,13 @@
         <v>5300</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G185" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -6226,13 +6230,13 @@
         <v>6100</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G186" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -6249,13 +6253,13 @@
         <v>6200</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G187" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -6272,13 +6276,13 @@
         <v>7100</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G188" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -6295,13 +6299,13 @@
         <v>7200</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G189" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -6318,13 +6322,13 @@
         <v>7300</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G190" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -6341,13 +6345,13 @@
         <v>7400</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G191" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -6364,13 +6368,13 @@
         <v>9100</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G192" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="193" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6378,13 +6382,13 @@
         <v>12</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="9"/>
       <c r="E193" s="5"/>
       <c r="F193" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G193" s="16"/>
     </row>
@@ -6402,13 +6406,13 @@
         <v>11000</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G194" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -6425,13 +6429,13 @@
         <v>11100</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G195" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -6448,13 +6452,13 @@
         <v>11200</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G196" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -6471,13 +6475,13 @@
         <v>11900</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G197" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -6494,13 +6498,13 @@
         <v>13100</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G198" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -6517,13 +6521,13 @@
         <v>13200</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G199" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -6540,13 +6544,13 @@
         <v>13900</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G200" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -6563,13 +6567,13 @@
         <v>14100</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G201" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -6586,13 +6590,13 @@
         <v>14101</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G202" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -6609,13 +6613,13 @@
         <v>15100</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G203" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -6632,13 +6636,13 @@
         <v>16100</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G204" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="205" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6646,13 +6650,13 @@
         <v>13</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="9"/>
       <c r="E205" s="5"/>
       <c r="F205" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G205" s="16"/>
     </row>
@@ -6670,13 +6674,13 @@
         <v>20000</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G206" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -6693,13 +6697,13 @@
         <v>21110</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G207" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -6716,13 +6720,13 @@
         <v>21111</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G208" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -6739,13 +6743,13 @@
         <v>21120</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G209" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -6762,13 +6766,13 @@
         <v>21121</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G210" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6785,13 +6789,13 @@
         <v>21130</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G211" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6808,13 +6812,13 @@
         <v>22100</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G212" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6831,13 +6835,13 @@
         <v>23000</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G213" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -6854,13 +6858,13 @@
         <v>23100</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G214" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -6877,13 +6881,13 @@
         <v>23200</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G215" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -6900,13 +6904,13 @@
         <v>23300</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G216" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -6923,13 +6927,13 @@
         <v>23400</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G217" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -6946,13 +6950,13 @@
         <v>23500</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G218" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -6969,13 +6973,13 @@
         <v>23600</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G219" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -6992,13 +6996,13 @@
         <v>23700</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G220" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -7015,13 +7019,13 @@
         <v>23800</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G221" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -7038,13 +7042,13 @@
         <v>24110</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G222" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -7061,13 +7065,13 @@
         <v>24120</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G223" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -7084,13 +7088,13 @@
         <v>24130</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G224" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -7107,13 +7111,13 @@
         <v>24131</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G225" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -7130,13 +7134,13 @@
         <v>24140</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G226" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -7153,13 +7157,13 @@
         <v>24150</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G227" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -7176,13 +7180,13 @@
         <v>24160</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G228" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -7199,13 +7203,13 @@
         <v>24170</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G229" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -7222,13 +7226,13 @@
         <v>24171</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G230" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -7245,13 +7249,13 @@
         <v>24180</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G231" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -7268,13 +7272,13 @@
         <v>24190</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G232" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -7291,13 +7295,13 @@
         <v>25100</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G233" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -7314,13 +7318,13 @@
         <v>25110</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G234" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -7337,13 +7341,13 @@
         <v>25112</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G235" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -7360,13 +7364,13 @@
         <v>25120</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G236" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -7383,13 +7387,13 @@
         <v>25500</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G237" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -7406,13 +7410,13 @@
         <v>26100</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G238" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -7429,13 +7433,13 @@
         <v>27110</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G239" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -7452,13 +7456,13 @@
         <v>27120</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G240" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -7475,13 +7479,13 @@
         <v>27130</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G241" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -7498,13 +7502,13 @@
         <v>27190</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G242" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -7521,13 +7525,13 @@
         <v>28000</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G243" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -7544,13 +7548,13 @@
         <v>28010</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G244" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -7567,13 +7571,13 @@
         <v>28020</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G245" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -7590,13 +7594,13 @@
         <v>28100</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G246" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -7613,13 +7617,13 @@
         <v>29100</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G247" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -7636,13 +7640,13 @@
         <v>29110</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G248" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -7659,13 +7663,13 @@
         <v>29120</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G249" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="250" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7673,13 +7677,13 @@
         <v>14</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C250" s="5"/>
       <c r="D250" s="9"/>
       <c r="E250" s="5"/>
       <c r="F250" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G250" s="16"/>
     </row>
@@ -7697,13 +7701,13 @@
         <v>71100</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G251" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -7720,13 +7724,13 @@
         <v>71110</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G252" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -7743,13 +7747,13 @@
         <v>71120</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G253" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -7766,13 +7770,13 @@
         <v>71121</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G254" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -7789,13 +7793,13 @@
         <v>71122</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G255" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -7812,13 +7816,13 @@
         <v>71123</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G256" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -7835,13 +7839,13 @@
         <v>71124</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G257" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -7858,13 +7862,13 @@
         <v>71130</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G258" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -7881,13 +7885,13 @@
         <v>71131</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G259" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -7904,13 +7908,13 @@
         <v>71132</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G260" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -7927,13 +7931,13 @@
         <v>71140</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G261" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -7950,13 +7954,13 @@
         <v>71141</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G262" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -7973,13 +7977,13 @@
         <v>71190</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G263" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -7996,13 +8000,13 @@
         <v>71191</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G264" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -8019,13 +8023,13 @@
         <v>71300</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G265" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -8042,13 +8046,13 @@
         <v>71310</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G266" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -8065,13 +8069,13 @@
         <v>71320</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G267" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -8088,13 +8092,13 @@
         <v>71322</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G268" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -8111,13 +8115,13 @@
         <v>71323</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G269" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -8134,13 +8138,13 @@
         <v>71324</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G270" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -8157,13 +8161,13 @@
         <v>71331</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G271" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -8180,13 +8184,13 @@
         <v>71340</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G272" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -8203,13 +8207,13 @@
         <v>71341</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F273" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G273" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -8226,13 +8230,13 @@
         <v>72100</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G274" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -8249,13 +8253,13 @@
         <v>72300</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G275" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -8272,13 +8276,13 @@
         <v>73100</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G276" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="277" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8286,13 +8290,13 @@
         <v>15</v>
       </c>
       <c r="B277" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C277" s="5"/>
       <c r="D277" s="9"/>
       <c r="E277" s="5"/>
       <c r="F277" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G277" s="16"/>
     </row>
@@ -8310,13 +8314,13 @@
         <v>30000</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G278" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -8333,13 +8337,13 @@
         <v>31000</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G279" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -8356,13 +8360,13 @@
         <v>31100</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F280" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G280" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -8379,13 +8383,13 @@
         <v>31101</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G281" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -8402,13 +8406,13 @@
         <v>31200</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G282" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -8425,13 +8429,13 @@
         <v>31201</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G283" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -8448,13 +8452,13 @@
         <v>31300</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G284" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -8471,13 +8475,13 @@
         <v>31400</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G285" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -8494,13 +8498,13 @@
         <v>31500</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G286" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -8517,13 +8521,13 @@
         <v>31501</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G287" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -8540,13 +8544,13 @@
         <v>31600</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G288" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -8563,13 +8567,13 @@
         <v>31700</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G289" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -8586,13 +8590,13 @@
         <v>31701</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G290" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -8609,13 +8613,13 @@
         <v>31800</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F291" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G291" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -8632,13 +8636,13 @@
         <v>31801</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G292" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -8655,13 +8659,13 @@
         <v>32000</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G293" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
@@ -8678,13 +8682,13 @@
         <v>32100</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G294" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -8701,13 +8705,13 @@
         <v>32200</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G295" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -8724,13 +8728,13 @@
         <v>32300</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G296" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -8747,13 +8751,13 @@
         <v>32400</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G297" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -8770,13 +8774,13 @@
         <v>32500</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G298" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
@@ -8793,13 +8797,13 @@
         <v>32600</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G299" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -8816,13 +8820,13 @@
         <v>32700</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F300" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G300" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -8839,13 +8843,13 @@
         <v>32800</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G301" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -8862,13 +8866,13 @@
         <v>33110</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F302" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G302" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -8885,13 +8889,13 @@
         <v>33120</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G303" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -8908,13 +8912,13 @@
         <v>33130</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G304" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -8931,13 +8935,13 @@
         <v>33140</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G305" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -8954,13 +8958,13 @@
         <v>33150</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G306" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
@@ -8977,13 +8981,13 @@
         <v>33160</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G307" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
@@ -9000,13 +9004,13 @@
         <v>33170</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G308" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -9023,13 +9027,13 @@
         <v>33210</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G309" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -9046,13 +9050,13 @@
         <v>33220</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G310" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -9069,13 +9073,13 @@
         <v>33230</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G311" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -9092,13 +9096,13 @@
         <v>33240</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G312" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
@@ -9115,13 +9119,13 @@
         <v>33250</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G313" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -9138,13 +9142,13 @@
         <v>33910</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G314" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
@@ -9161,13 +9165,13 @@
         <v>33920</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G315" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -9184,13 +9188,13 @@
         <v>33990</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G316" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
@@ -9207,13 +9211,13 @@
         <v>34100</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G317" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -9230,13 +9234,13 @@
         <v>34200</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F318" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G318" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -9253,13 +9257,13 @@
         <v>35200</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G319" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
@@ -9276,13 +9280,13 @@
         <v>37100</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G320" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -9299,13 +9303,13 @@
         <v>37200</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G321" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -9322,13 +9326,13 @@
         <v>37300</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G322" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
@@ -9345,13 +9349,13 @@
         <v>37700</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G323" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -9368,13 +9372,13 @@
         <v>37900</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F324" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G324" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -9391,13 +9395,13 @@
         <v>39110</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F325" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G325" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -9414,13 +9418,13 @@
         <v>39120</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F326" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G326" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -9437,13 +9441,13 @@
         <v>39190</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G327" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="328" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -9451,13 +9455,13 @@
         <v>16</v>
       </c>
       <c r="B328" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C328" s="5"/>
       <c r="D328" s="9"/>
       <c r="E328" s="5"/>
       <c r="F328" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G328" s="16"/>
     </row>
@@ -9475,13 +9479,13 @@
         <v>41120</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F329" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G329" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -9498,13 +9502,13 @@
         <v>41130</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G330" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -9521,13 +9525,13 @@
         <v>41140</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G331" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -9544,13 +9548,13 @@
         <v>41150</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G332" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
@@ -9567,13 +9571,13 @@
         <v>41160</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G333" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
@@ -9590,13 +9594,13 @@
         <v>41162</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G334" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -9613,13 +9617,13 @@
         <v>41170</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F335" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G335" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
@@ -9636,13 +9640,13 @@
         <v>41180</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G336" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -9659,13 +9663,13 @@
         <v>41200</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G337" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -9682,13 +9686,13 @@
         <v>42100</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F338" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G338" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -9705,13 +9709,13 @@
         <v>42200</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G339" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
@@ -9728,13 +9732,13 @@
         <v>42900</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G340" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
@@ -9751,13 +9755,13 @@
         <v>43110</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G341" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -9774,13 +9778,13 @@
         <v>43111</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G342" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
@@ -9797,13 +9801,13 @@
         <v>43120</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G343" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
@@ -9820,13 +9824,13 @@
         <v>43121</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G344" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -9843,13 +9847,13 @@
         <v>43130</v>
       </c>
       <c r="E345" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G345" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -9866,13 +9870,13 @@
         <v>43131</v>
       </c>
       <c r="E346" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G346" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -9889,13 +9893,13 @@
         <v>43140</v>
       </c>
       <c r="E347" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G347" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
@@ -9912,13 +9916,13 @@
         <v>43141</v>
       </c>
       <c r="E348" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F348" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G348" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
@@ -9935,13 +9939,13 @@
         <v>43150</v>
       </c>
       <c r="E349" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F349" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G349" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
@@ -9958,13 +9962,13 @@
         <v>43151</v>
       </c>
       <c r="E350" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F350" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G350" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -9981,13 +9985,13 @@
         <v>43160</v>
       </c>
       <c r="E351" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G351" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
@@ -10004,13 +10008,13 @@
         <v>43162</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G352" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
@@ -10027,13 +10031,13 @@
         <v>43165</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G353" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -10050,13 +10054,13 @@
         <v>43170</v>
       </c>
       <c r="E354" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G354" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
@@ -10073,13 +10077,13 @@
         <v>43171</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G355" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
@@ -10096,13 +10100,13 @@
         <v>43172</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G356" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -10119,13 +10123,13 @@
         <v>43173</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G357" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
@@ -10142,13 +10146,13 @@
         <v>43180</v>
       </c>
       <c r="E358" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G358" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
@@ -10165,13 +10169,13 @@
         <v>43190</v>
       </c>
       <c r="E359" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G359" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
@@ -10188,13 +10192,13 @@
         <v>43191</v>
       </c>
       <c r="E360" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F360" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G360" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
@@ -10211,13 +10215,13 @@
         <v>44110</v>
       </c>
       <c r="E361" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F361" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G361" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -10234,13 +10238,13 @@
         <v>44111</v>
       </c>
       <c r="E362" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F362" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G362" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
@@ -10257,13 +10261,13 @@
         <v>44112</v>
       </c>
       <c r="E363" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F363" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G363" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
@@ -10280,13 +10284,13 @@
         <v>44113</v>
       </c>
       <c r="E364" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F364" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G364" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
@@ -10303,13 +10307,13 @@
         <v>44114</v>
       </c>
       <c r="E365" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G365" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -10326,13 +10330,13 @@
         <v>44115</v>
       </c>
       <c r="E366" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F366" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G366" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -10349,13 +10353,13 @@
         <v>44116</v>
       </c>
       <c r="E367" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F367" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G367" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
@@ -10372,13 +10376,13 @@
         <v>44119</v>
       </c>
       <c r="E368" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G368" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
@@ -10395,13 +10399,13 @@
         <v>44120</v>
       </c>
       <c r="E369" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F369" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G369" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
@@ -10418,13 +10422,13 @@
         <v>44121</v>
       </c>
       <c r="E370" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F370" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G370" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
@@ -10441,13 +10445,13 @@
         <v>44122</v>
       </c>
       <c r="E371" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F371" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G371" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
@@ -10464,13 +10468,13 @@
         <v>44123</v>
       </c>
       <c r="E372" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F372" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G372" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
@@ -10487,13 +10491,13 @@
         <v>44129</v>
       </c>
       <c r="E373" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F373" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G373" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
@@ -10510,13 +10514,13 @@
         <v>44130</v>
       </c>
       <c r="E374" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F374" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G374" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
@@ -10533,13 +10537,13 @@
         <v>44131</v>
       </c>
       <c r="E375" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F375" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G375" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
@@ -10556,13 +10560,13 @@
         <v>44132</v>
       </c>
       <c r="E376" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F376" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G376" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
@@ -10579,13 +10583,13 @@
         <v>44133</v>
       </c>
       <c r="E377" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F377" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G377" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
@@ -10602,13 +10606,13 @@
         <v>44200</v>
       </c>
       <c r="E378" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F378" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G378" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
@@ -10625,13 +10629,13 @@
         <v>47610</v>
       </c>
       <c r="E379" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G379" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
@@ -10648,13 +10652,13 @@
         <v>47620</v>
       </c>
       <c r="E380" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G380" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
@@ -10671,13 +10675,13 @@
         <v>45100</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G381" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
@@ -10694,13 +10698,13 @@
         <v>45101</v>
       </c>
       <c r="E382" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F382" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G382" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
@@ -10717,13 +10721,13 @@
         <v>45102</v>
       </c>
       <c r="E383" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F383" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G383" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
@@ -10740,13 +10744,13 @@
         <v>45151</v>
       </c>
       <c r="E384" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F384" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G384" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
@@ -10763,13 +10767,13 @@
         <v>45200</v>
       </c>
       <c r="E385" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F385" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G385" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
@@ -10786,13 +10790,13 @@
         <v>46100</v>
       </c>
       <c r="E386" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F386" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G386" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
@@ -10809,13 +10813,13 @@
         <v>46200</v>
       </c>
       <c r="E387" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F387" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G387" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
@@ -10832,13 +10836,13 @@
         <v>46300</v>
       </c>
       <c r="E388" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F388" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G388" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
@@ -10855,13 +10859,13 @@
         <v>46399</v>
       </c>
       <c r="E389" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F389" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G389" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
@@ -10878,13 +10882,13 @@
         <v>47110</v>
       </c>
       <c r="E390" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F390" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G390" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
@@ -10901,13 +10905,13 @@
         <v>47120</v>
       </c>
       <c r="E391" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F391" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G391" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
@@ -10924,13 +10928,13 @@
         <v>47123</v>
       </c>
       <c r="E392" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F392" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G392" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
@@ -10947,13 +10951,13 @@
         <v>47130</v>
       </c>
       <c r="E393" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F393" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G393" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
@@ -10970,13 +10974,13 @@
         <v>47210</v>
       </c>
       <c r="E394" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F394" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G394" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
@@ -10993,13 +10997,13 @@
         <v>47300</v>
       </c>
       <c r="E395" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F395" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G395" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
@@ -11016,13 +11020,13 @@
         <v>47310</v>
       </c>
       <c r="E396" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F396" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G396" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
@@ -11039,13 +11043,13 @@
         <v>47400</v>
       </c>
       <c r="E397" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F397" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G397" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
@@ -11062,13 +11066,13 @@
         <v>47500</v>
       </c>
       <c r="E398" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F398" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G398" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
@@ -11085,13 +11089,13 @@
         <v>47510</v>
       </c>
       <c r="E399" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F399" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G399" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
@@ -11108,13 +11112,13 @@
         <v>47520</v>
       </c>
       <c r="E400" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F400" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G400" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
@@ -11131,13 +11135,13 @@
         <v>47600</v>
       </c>
       <c r="E401" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F401" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G401" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
@@ -11154,13 +11158,13 @@
         <v>47700</v>
       </c>
       <c r="E402" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F402" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G402" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
@@ -11177,13 +11181,13 @@
         <v>48100</v>
       </c>
       <c r="E403" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F403" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G403" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
@@ -11200,13 +11204,13 @@
         <v>48200</v>
       </c>
       <c r="E404" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F404" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G404" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
@@ -11223,13 +11227,13 @@
         <v>48300</v>
       </c>
       <c r="E405" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F405" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G405" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
@@ -11246,13 +11250,13 @@
         <v>48400</v>
       </c>
       <c r="E406" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F406" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G406" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
@@ -11269,13 +11273,13 @@
         <v>49110</v>
       </c>
       <c r="E407" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F407" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G407" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
@@ -11292,13 +11296,13 @@
         <v>49120</v>
       </c>
       <c r="E408" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F408" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G408" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
@@ -11315,13 +11319,13 @@
         <v>49140</v>
       </c>
       <c r="E409" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F409" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G409" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
@@ -11338,13 +11342,13 @@
         <v>49141</v>
       </c>
       <c r="E410" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F410" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G410" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
@@ -11361,13 +11365,13 @@
         <v>49142</v>
       </c>
       <c r="E411" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F411" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G411" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
@@ -11384,13 +11388,13 @@
         <v>49145</v>
       </c>
       <c r="E412" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F412" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G412" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -11407,13 +11411,13 @@
         <v>49150</v>
       </c>
       <c r="E413" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F413" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G413" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -11430,13 +11434,13 @@
         <v>49151</v>
       </c>
       <c r="E414" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F414" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G414" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -11453,13 +11457,13 @@
         <v>49152</v>
       </c>
       <c r="E415" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F415" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G415" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
@@ -11476,13 +11480,13 @@
         <v>49155</v>
       </c>
       <c r="E416" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F416" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G416" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
@@ -11499,13 +11503,13 @@
         <v>49160</v>
       </c>
       <c r="E417" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F417" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G417" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
@@ -11522,13 +11526,13 @@
         <v>49161</v>
       </c>
       <c r="E418" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F418" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G418" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
@@ -11545,13 +11549,13 @@
         <v>49162</v>
       </c>
       <c r="E419" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F419" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G419" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -11568,13 +11572,13 @@
         <v>49163</v>
       </c>
       <c r="E420" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F420" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G420" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
@@ -11591,13 +11595,13 @@
         <v>49170</v>
       </c>
       <c r="E421" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F421" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G421" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
@@ -11614,13 +11618,13 @@
         <v>49190</v>
       </c>
       <c r="E422" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F422" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G422" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
@@ -11637,13 +11641,13 @@
         <v>49352</v>
       </c>
       <c r="E423" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F423" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G423" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
@@ -11660,13 +11664,13 @@
         <v>49400</v>
       </c>
       <c r="E424" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F424" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G424" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="425" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -11674,12 +11678,12 @@
         <v>19</v>
       </c>
       <c r="B425" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C425" s="5"/>
       <c r="D425" s="9"/>
       <c r="F425" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G425" s="16"/>
     </row>
@@ -11697,13 +11701,13 @@
         <v>61000</v>
       </c>
       <c r="E426" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F426" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G426" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
@@ -11720,13 +11724,13 @@
         <v>61100</v>
       </c>
       <c r="E427" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F427" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G427" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
@@ -11743,13 +11747,13 @@
         <v>61200</v>
       </c>
       <c r="E428" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F428" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G428" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
@@ -11766,13 +11770,13 @@
         <v>61300</v>
       </c>
       <c r="E429" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F429" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G429" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
@@ -11789,13 +11793,13 @@
         <v>61500</v>
       </c>
       <c r="E430" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F430" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G430" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
@@ -11812,13 +11816,13 @@
         <v>61600</v>
       </c>
       <c r="E431" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F431" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G431" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -11835,13 +11839,13 @@
         <v>61700</v>
       </c>
       <c r="E432" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F432" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G432" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
@@ -11858,13 +11862,13 @@
         <v>65100</v>
       </c>
       <c r="E433" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F433" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G433" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
@@ -11881,13 +11885,13 @@
         <v>61900</v>
       </c>
       <c r="E434" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F434" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G434" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
@@ -11904,13 +11908,13 @@
         <v>61400</v>
       </c>
       <c r="E435" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F435" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G435" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
@@ -11927,13 +11931,13 @@
         <v>61800</v>
       </c>
       <c r="E436" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F436" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G436" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
@@ -11950,13 +11954,13 @@
         <v>69100</v>
       </c>
       <c r="E437" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F437" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G437" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
@@ -11973,13 +11977,13 @@
         <v>69101</v>
       </c>
       <c r="E438" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F438" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G438" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
@@ -11996,13 +12000,13 @@
         <v>69110</v>
       </c>
       <c r="E439" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F439" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G439" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
@@ -12019,13 +12023,13 @@
         <v>69120</v>
       </c>
       <c r="E440" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F440" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G440" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
@@ -12042,13 +12046,13 @@
         <v>69190</v>
       </c>
       <c r="E441" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F441" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G441" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
@@ -12065,13 +12069,13 @@
         <v>69200</v>
       </c>
       <c r="E442" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F442" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G442" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="443" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12079,12 +12083,12 @@
         <v>20</v>
       </c>
       <c r="B443" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C443" s="5"/>
       <c r="D443" s="9"/>
       <c r="F443" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G443" s="16"/>
     </row>
@@ -12102,13 +12106,13 @@
         <v>50000</v>
       </c>
       <c r="E444" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F444" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G444" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
@@ -12125,13 +12129,13 @@
         <v>51000</v>
       </c>
       <c r="E445" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F445" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G445" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
@@ -12148,13 +12152,13 @@
         <v>51100</v>
       </c>
       <c r="E446" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F446" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G446" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
@@ -12171,13 +12175,13 @@
         <v>51200</v>
       </c>
       <c r="E447" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F447" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G447" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
@@ -12194,13 +12198,13 @@
         <v>51300</v>
       </c>
       <c r="E448" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F448" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G448" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
@@ -12217,13 +12221,13 @@
         <v>51400</v>
       </c>
       <c r="E449" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F449" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G449" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
@@ -12240,13 +12244,13 @@
         <v>51500</v>
       </c>
       <c r="E450" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F450" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G450" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
@@ -12263,13 +12267,13 @@
         <v>51600</v>
       </c>
       <c r="E451" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F451" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G451" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
@@ -12286,13 +12290,13 @@
         <v>51700</v>
       </c>
       <c r="E452" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F452" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G452" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
@@ -12309,13 +12313,13 @@
         <v>51800</v>
       </c>
       <c r="E453" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F453" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G453" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
@@ -12332,13 +12336,13 @@
         <v>51900</v>
       </c>
       <c r="E454" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F454" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G454" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
@@ -12355,13 +12359,13 @@
         <v>59100</v>
       </c>
       <c r="E455" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F455" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G455" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
@@ -12378,13 +12382,13 @@
         <v>59200</v>
       </c>
       <c r="E456" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F456" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G456" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
@@ -12401,13 +12405,13 @@
         <v>59900</v>
       </c>
       <c r="E457" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F457" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G457" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="458" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12415,12 +12419,12 @@
         <v>23</v>
       </c>
       <c r="B458" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C458" s="5"/>
       <c r="D458" s="9"/>
       <c r="F458" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G458" s="16"/>
     </row>
@@ -12438,13 +12442,13 @@
         <v>91100</v>
       </c>
       <c r="E459" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F459" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G459" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="460" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12452,13 +12456,13 @@
         <v>24</v>
       </c>
       <c r="B460" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C460" s="5"/>
       <c r="D460" s="9"/>
       <c r="E460" s="5"/>
       <c r="F460" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G460" s="16"/>
     </row>
@@ -12476,13 +12480,13 @@
         <v>91100</v>
       </c>
       <c r="E461" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F461" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G461" s="16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="462" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12490,12 +12494,12 @@
         <v>27</v>
       </c>
       <c r="B462" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C462" s="5"/>
       <c r="D462" s="9"/>
       <c r="F462" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G462" s="16"/>
     </row>
@@ -12513,13 +12517,13 @@
         <v>81100</v>
       </c>
       <c r="E463" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F463" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G463" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
@@ -12536,13 +12540,13 @@
         <v>81101</v>
       </c>
       <c r="E464" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F464" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G464" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
@@ -12559,13 +12563,13 @@
         <v>81102</v>
       </c>
       <c r="E465" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F465" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G465" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
@@ -12582,13 +12586,13 @@
         <v>81110</v>
       </c>
       <c r="E466" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F466" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G466" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
@@ -12605,13 +12609,13 @@
         <v>81111</v>
       </c>
       <c r="E467" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F467" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G467" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
@@ -12628,13 +12632,13 @@
         <v>81112</v>
       </c>
       <c r="E468" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F468" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G468" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
@@ -12651,13 +12655,13 @@
         <v>81113</v>
       </c>
       <c r="E469" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F469" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G469" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
@@ -12674,13 +12678,13 @@
         <v>81114</v>
       </c>
       <c r="E470" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F470" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G470" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
@@ -12697,13 +12701,13 @@
         <v>81115</v>
       </c>
       <c r="E471" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F471" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G471" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
@@ -12720,13 +12724,13 @@
         <v>81100</v>
       </c>
       <c r="E472" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F472" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G472" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
@@ -12743,13 +12747,13 @@
         <v>81101</v>
       </c>
       <c r="E473" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F473" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G473" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
@@ -12766,13 +12770,13 @@
         <v>81102</v>
       </c>
       <c r="E474" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F474" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G474" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
@@ -12789,13 +12793,13 @@
         <v>81110</v>
       </c>
       <c r="E475" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F475" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G475" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
@@ -12812,13 +12816,13 @@
         <v>81111</v>
       </c>
       <c r="E476" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F476" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G476" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
@@ -12835,13 +12839,13 @@
         <v>81112</v>
       </c>
       <c r="E477" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F477" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G477" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
@@ -12858,13 +12862,13 @@
         <v>81113</v>
       </c>
       <c r="E478" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F478" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G478" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
@@ -12881,13 +12885,13 @@
         <v>81114</v>
       </c>
       <c r="E479" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F479" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G479" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
@@ -12904,13 +12908,13 @@
         <v>81115</v>
       </c>
       <c r="E480" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F480" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G480" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
@@ -12927,13 +12931,13 @@
         <v>0</v>
       </c>
       <c r="E481" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="F481" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="F481" s="5" t="s">
-        <v>492</v>
-      </c>
       <c r="G481" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
@@ -12950,13 +12954,13 @@
         <v>3</v>
       </c>
       <c r="E482" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F482" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G482" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
@@ -12973,13 +12977,13 @@
         <v>0</v>
       </c>
       <c r="E483" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F483" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G483" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
@@ -12996,13 +13000,13 @@
         <v>5</v>
       </c>
       <c r="E484" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F484" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G484" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
@@ -13019,13 +13023,13 @@
         <v>15</v>
       </c>
       <c r="E485" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F485" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G485" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
@@ -13042,13 +13046,13 @@
         <v>25</v>
       </c>
       <c r="E486" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F486" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G486" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
@@ -13065,13 +13069,13 @@
         <v>35</v>
       </c>
       <c r="E487" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F487" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G487" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
@@ -13088,13 +13092,13 @@
         <v>45</v>
       </c>
       <c r="E488" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F488" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G488" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
@@ -13111,13 +13115,13 @@
         <v>55</v>
       </c>
       <c r="E489" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F489" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G489" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
@@ -13134,13 +13138,13 @@
         <v>65</v>
       </c>
       <c r="E490" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F490" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G490" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
@@ -13157,13 +13161,13 @@
         <v>75</v>
       </c>
       <c r="E491" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F491" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G491" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
@@ -13180,13 +13184,13 @@
         <v>85</v>
       </c>
       <c r="E492" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F492" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G492" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
@@ -13203,13 +13207,13 @@
         <v>3</v>
       </c>
       <c r="E493" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F493" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G493" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
@@ -13226,13 +13230,13 @@
         <v>13</v>
       </c>
       <c r="E494" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F494" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G494" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
@@ -13249,13 +13253,13 @@
         <v>23</v>
       </c>
       <c r="E495" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F495" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G495" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
@@ -13272,13 +13276,13 @@
         <v>33</v>
       </c>
       <c r="E496" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F496" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G496" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
@@ -13295,13 +13299,13 @@
         <v>43</v>
       </c>
       <c r="E497" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F497" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G497" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
@@ -13318,13 +13322,13 @@
         <v>53</v>
       </c>
       <c r="E498" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F498" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G498" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
@@ -13341,13 +13345,13 @@
         <v>63</v>
       </c>
       <c r="E499" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F499" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G499" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
@@ -13364,13 +13368,13 @@
         <v>73</v>
       </c>
       <c r="E500" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F500" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G500" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
@@ -13387,13 +13391,13 @@
         <v>83</v>
       </c>
       <c r="E501" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F501" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G501" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
@@ -13410,13 +13414,13 @@
         <v>93</v>
       </c>
       <c r="E502" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F502" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G502" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
@@ -13433,13 +13437,13 @@
         <v>103</v>
       </c>
       <c r="E503" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F503" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G503" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
@@ -13456,13 +13460,13 @@
         <v>113</v>
       </c>
       <c r="E504" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F504" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G504" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
@@ -13479,13 +13483,13 @@
         <v>123</v>
       </c>
       <c r="E505" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F505" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G505" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
@@ -13502,13 +13506,13 @@
         <v>133</v>
       </c>
       <c r="E506" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F506" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G506" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
@@ -13525,13 +13529,13 @@
         <v>143</v>
       </c>
       <c r="E507" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F507" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G507" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
@@ -13548,13 +13552,13 @@
         <v>153</v>
       </c>
       <c r="E508" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F508" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G508" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
@@ -13571,13 +13575,13 @@
         <v>163</v>
       </c>
       <c r="E509" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F509" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G509" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
@@ -13594,13 +13598,13 @@
         <v>173</v>
       </c>
       <c r="E510" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F510" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G510" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
@@ -13617,13 +13621,13 @@
         <v>183</v>
       </c>
       <c r="E511" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F511" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G511" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
@@ -13640,13 +13644,13 @@
         <v>4</v>
       </c>
       <c r="E512" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F512" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G512" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
@@ -13663,13 +13667,13 @@
         <v>1</v>
       </c>
       <c r="E513" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F513" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G513" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
@@ -13686,13 +13690,13 @@
         <v>2</v>
       </c>
       <c r="E514" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F514" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G514" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
@@ -13709,13 +13713,13 @@
         <v>1</v>
       </c>
       <c r="E515" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F515" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G515" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
@@ -13732,13 +13736,13 @@
         <v>2</v>
       </c>
       <c r="E516" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F516" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G516" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
@@ -13755,13 +13759,13 @@
         <v>11</v>
       </c>
       <c r="E517" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F517" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G517" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
@@ -13778,13 +13782,13 @@
         <v>30010</v>
       </c>
       <c r="E518" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F518" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G518" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="519" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -13792,11 +13796,11 @@
         <v>28</v>
       </c>
       <c r="B519" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D519" s="6"/>
       <c r="F519" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G519" s="16"/>
     </row>
@@ -13814,13 +13818,13 @@
         <v>54700</v>
       </c>
       <c r="E520" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F520" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G520" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="521" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -13828,11 +13832,11 @@
         <v>29</v>
       </c>
       <c r="B521" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D521" s="6"/>
       <c r="F521" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G521" s="16"/>
     </row>
@@ -13850,13 +13854,13 @@
         <v>55700</v>
       </c>
       <c r="E522" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F522" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G522" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="523" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -13864,11 +13868,11 @@
         <v>30</v>
       </c>
       <c r="B523" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D523" s="6"/>
       <c r="F523" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G523" s="16"/>
     </row>
@@ -13886,13 +13890,13 @@
         <v>47800</v>
       </c>
       <c r="E524" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F524" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G524" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="525" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -13900,11 +13904,11 @@
         <v>31</v>
       </c>
       <c r="B525" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D525" s="6"/>
       <c r="F525" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G525" s="16"/>
     </row>
@@ -13922,13 +13926,13 @@
         <v>47810</v>
       </c>
       <c r="E526" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F526" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G526" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>

--- a/Bonn/raw/KostenartengruppeBonn2016.xlsx
+++ b/Bonn/raw/KostenartengruppeBonn2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ok-server\eis-homes\cengels\Desktop\GitHub\OpenBudgets\datasets\Bonn\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ok-server\EIS-Homes\cengels\Eigene Dateien\OpenBudgets.eu\DataSets\SampleData\Bonn\Raw Processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="546">
   <si>
     <t>Kostenart</t>
   </si>
@@ -1650,6 +1650,18 @@
   </si>
   <si>
     <t>ZeileInErgebnisplan</t>
+  </si>
+  <si>
+    <t>K11-281</t>
+  </si>
+  <si>
+    <t>Aufwendungen aus internen Leistungsbez.</t>
+  </si>
+  <si>
+    <t>K11-271</t>
+  </si>
+  <si>
+    <t>Erträge aus internen Leistungsbez.</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1671,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1670,6 +1682,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1717,7 +1736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1756,6 +1775,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2036,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G526"/>
+  <dimension ref="A1:H531"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A509" workbookViewId="0">
+      <selection activeCell="F520" sqref="F520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13935,7 +13957,48 @@
         <v>537</v>
       </c>
     </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A527" s="7">
+        <v>27</v>
+      </c>
+      <c r="B527" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="C527" s="4"/>
+      <c r="D527" s="6"/>
+      <c r="E527" s="4"/>
+      <c r="F527" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A528" s="7">
+        <v>28</v>
+      </c>
+      <c r="B528" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="C528" s="4"/>
+      <c r="D528" s="6"/>
+      <c r="E528" s="4"/>
+      <c r="F528" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="530" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E530" s="19"/>
+      <c r="F530" s="20"/>
+      <c r="G530" s="18"/>
+    </row>
+    <row r="531" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F531" s="19"/>
+      <c r="G531" s="18"/>
+      <c r="H531" s="18"/>
+    </row>
   </sheetData>
+  <sortState ref="A527:H528">
+    <sortCondition ref="A527:A528"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
